--- a/Project_Management/Sprint 1/Burndown chart.xlsx
+++ b/Project_Management/Sprint 1/Burndown chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo Correia\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GL704G\Desktop\freecol-SE-exercise\Project_Management\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E9FD2A9-17C4-4DEE-A426-D164DD249B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13411498-9F55-4045-9030-4E676FD3BAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -591,9 +591,16 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -635,13 +642,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,7 +668,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -775,7 +775,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -784,16 +784,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -897,28 +897,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>13</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -995,28 +995,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>13</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.133333333333333</c:v>
+                  <c:v>7.4666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.266666666666666</c:v>
+                  <c:v>6.9333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.4</c:v>
+                  <c:v>6.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.5333333333333332</c:v>
+                  <c:v>5.8666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.6666666666666661</c:v>
+                  <c:v>5.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.8</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.9333333333333336</c:v>
+                  <c:v>4.2666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1886,7 +1886,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2184,8 +2184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2199,52 +2199,52 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="36"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="39"/>
     </row>
     <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="42"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -2273,8 +2273,8 @@
       </c>
     </row>
     <row r="5" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
-      <c r="C5" s="42"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
@@ -2304,14 +2304,14 @@
       <c r="B6" s="20">
         <v>1</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="24">
         <v>1</v>
       </c>
       <c r="E6" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -2324,21 +2324,23 @@
       <c r="B7" s="22">
         <v>2</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="9">
         <v>1</v>
       </c>
       <c r="G7" s="9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
@@ -2346,7 +2348,7 @@
       <c r="B8" s="22">
         <v>3</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="25">
@@ -2361,9 +2363,11 @@
         <v>1</v>
       </c>
       <c r="I8" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J8" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="9">
+        <v>1</v>
+      </c>
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
@@ -2374,14 +2378,12 @@
         <v>21</v>
       </c>
       <c r="D9" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="9">
-        <v>0.5</v>
-      </c>
+      <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -2394,17 +2396,13 @@
         <v>22</v>
       </c>
       <c r="D10" s="26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="9">
-        <v>0.5</v>
-      </c>
+      <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="9">
-        <v>1</v>
-      </c>
+      <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
     </row>
@@ -2416,19 +2414,15 @@
         <v>23</v>
       </c>
       <c r="D11" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="K11" s="9">
-        <v>0.5</v>
-      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="22">
@@ -2438,7 +2432,7 @@
         <v>24</v>
       </c>
       <c r="D12" s="26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="9"/>
@@ -2446,9 +2440,7 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="9">
-        <v>0.5</v>
-      </c>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="22">
@@ -2505,116 +2497,116 @@
       <c r="K15" s="9"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="41"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="2">
         <v>0</v>
       </c>
       <c r="E16" s="14">
-        <f>SUM(E6:E15)</f>
-        <v>0.5</v>
+        <f t="shared" ref="E16:K16" si="0">SUM(E6:E15)</f>
+        <v>1</v>
       </c>
       <c r="F16" s="14">
-        <f>SUM(F6:F15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G16" s="14">
-        <f>SUM(G6:G15)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H16" s="14">
-        <f>SUM(H6:H15)</f>
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I16" s="14">
-        <f>SUM(I6:I15)</f>
-        <v>1.5</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="J16" s="14">
-        <f>SUM(J6:J15)</f>
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K16" s="14">
-        <f>SUM(K6:K15)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="31"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="16">
         <f>SUM(D6:D16)</f>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E17" s="17">
-        <f>D17-SUM(E6:E15)</f>
-        <v>12.5</v>
+        <f t="shared" ref="E17:K17" si="1">D17-SUM(E6:E15)</f>
+        <v>7</v>
       </c>
       <c r="F17" s="15">
-        <f>E17-SUM(F6:F15)</f>
-        <v>11.5</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="G17" s="15">
-        <f>F17-SUM(G6:G15)</f>
-        <v>9.5</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="H17" s="15">
-        <f>G17-SUM(H6:H15)</f>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="I17" s="15">
-        <f>H17-SUM(I6:I15)</f>
-        <v>6.5</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J17" s="13">
-        <f>I17-SUM(J6:J15)</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K17" s="13">
-        <f>J17-SUM(K6:K15)</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="44">
+      <c r="C18" s="36"/>
+      <c r="D18" s="28">
         <f>D17</f>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E18" s="18">
         <f>$D$18-($D$18/15*1)</f>
-        <v>12.133333333333333</v>
+        <v>7.4666666666666668</v>
       </c>
       <c r="F18" s="1">
         <f>$D$18-($D$18/15*2)</f>
-        <v>11.266666666666666</v>
+        <v>6.9333333333333336</v>
       </c>
       <c r="G18" s="1">
         <f>$D$18-($D$18/15*3)</f>
-        <v>10.4</v>
+        <v>6.4</v>
       </c>
       <c r="H18" s="1">
         <f>$D$18-($D$18/15*4)</f>
-        <v>9.5333333333333332</v>
+        <v>5.8666666666666671</v>
       </c>
       <c r="I18" s="1">
         <f>$D$18-($D$18/15*5)</f>
-        <v>8.6666666666666661</v>
+        <v>5.3333333333333339</v>
       </c>
       <c r="J18" s="1">
         <f>$D$18-($D$18/15*6)</f>
-        <v>7.8</v>
+        <v>4.8</v>
       </c>
       <c r="K18" s="1">
         <f>$D$18-($D$18/15*7)</f>
-        <v>6.9333333333333336</v>
+        <v>4.2666666666666666</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">

--- a/Project_Management/Sprint 1/Burndown chart.xlsx
+++ b/Project_Management/Sprint 1/Burndown chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GL704G\Desktop\freecol-SE-exercise\Project_Management\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13411498-9F55-4045-9030-4E676FD3BAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D5B4E7-033C-46AD-8C48-6DE379968212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Sprint Burndown Chart</t>
   </si>
@@ -78,15 +78,6 @@
     <t>Ideal Burndown</t>
   </si>
   <si>
-    <t xml:space="preserve">Implement a round clock with 30s timer </t>
-  </si>
-  <si>
-    <t>Enlarge graphic zoom</t>
-  </si>
-  <si>
-    <t>Soldiers get a plus 1 movement unit when passing through sand</t>
-  </si>
-  <si>
     <t>Setup the FreeCol repository.</t>
   </si>
   <si>
@@ -94,18 +85,6 @@
   </si>
   <si>
     <t>Extract exhaustive information.</t>
-  </si>
-  <si>
-    <t>Identify metrics.</t>
-  </si>
-  <si>
-    <t>Design pattern identification.</t>
-  </si>
-  <si>
-    <t>Pinpoint code smells.</t>
-  </si>
-  <si>
-    <t>Compile reports (Metrics, GoF, Smells).</t>
   </si>
 </sst>
 </file>
@@ -2184,7 +2163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2305,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" s="24">
         <v>1</v>
@@ -2325,7 +2304,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7" s="25">
         <v>3</v>
@@ -2349,7 +2328,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" s="25">
         <v>4</v>
@@ -2371,15 +2350,9 @@
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="22">
-        <v>4</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="25">
-        <v>0</v>
-      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="11"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -2389,15 +2362,9 @@
       <c r="K9" s="9"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="22">
-        <v>5</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="26">
-        <v>0</v>
-      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="12"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -2407,15 +2374,9 @@
       <c r="K10" s="9"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="22">
-        <v>6</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="26">
-        <v>0</v>
-      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="12"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -2425,15 +2386,9 @@
       <c r="K11" s="9"/>
     </row>
     <row r="12" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="22">
-        <v>7</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="26">
-        <v>0</v>
-      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="12"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -2443,15 +2398,9 @@
       <c r="K12" s="9"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="22">
-        <v>8</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="26">
-        <v>0</v>
-      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="12"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -2461,15 +2410,9 @@
       <c r="K13" s="9"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="22">
-        <v>9</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="26">
-        <v>0</v>
-      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="12"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -2479,15 +2422,9 @@
       <c r="K14" s="9"/>
     </row>
     <row r="15" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="22">
-        <v>10</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="26">
-        <v>0</v>
-      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="12"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
